--- a/dataindex_constituents/sp500.xlsx
+++ b/dataindex_constituents/sp500.xlsx
@@ -3502,10 +3502,10 @@
         <v>11</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -3528,10 +3528,10 @@
         <v>11</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -3554,10 +3554,10 @@
         <v>11</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -3580,10 +3580,10 @@
         <v>11</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -3606,10 +3606,10 @@
         <v>11</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -3632,10 +3632,10 @@
         <v>11</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -3658,10 +3658,10 @@
         <v>11</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -3684,10 +3684,10 @@
         <v>11</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -3710,10 +3710,10 @@
         <v>11</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -3736,10 +3736,10 @@
         <v>11</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -3762,10 +3762,10 @@
         <v>11</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -3788,10 +3788,10 @@
         <v>11</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -3814,10 +3814,10 @@
         <v>11</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -3840,10 +3840,10 @@
         <v>11</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -3866,10 +3866,10 @@
         <v>11</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -3892,10 +3892,10 @@
         <v>11</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -3918,10 +3918,10 @@
         <v>11</v>
       </c>
       <c r="G18" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H18" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -3944,10 +3944,10 @@
         <v>11</v>
       </c>
       <c r="G19" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H19" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -3970,10 +3970,10 @@
         <v>11</v>
       </c>
       <c r="G20" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H20" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -3996,10 +3996,10 @@
         <v>11</v>
       </c>
       <c r="G21" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H21" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -4022,10 +4022,10 @@
         <v>11</v>
       </c>
       <c r="G22" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H22" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -4048,10 +4048,10 @@
         <v>11</v>
       </c>
       <c r="G23" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H23" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -4074,10 +4074,10 @@
         <v>11</v>
       </c>
       <c r="G24" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H24" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -4100,10 +4100,10 @@
         <v>11</v>
       </c>
       <c r="G25" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H25" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -4126,10 +4126,10 @@
         <v>11</v>
       </c>
       <c r="G26" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H26" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -4152,10 +4152,10 @@
         <v>11</v>
       </c>
       <c r="G27" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H27" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -4178,10 +4178,10 @@
         <v>11</v>
       </c>
       <c r="G28" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H28" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -4204,10 +4204,10 @@
         <v>11</v>
       </c>
       <c r="G29" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H29" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -4230,10 +4230,10 @@
         <v>11</v>
       </c>
       <c r="G30" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H30" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -4256,10 +4256,10 @@
         <v>11</v>
       </c>
       <c r="G31" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H31" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -4282,10 +4282,10 @@
         <v>11</v>
       </c>
       <c r="G32" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H32" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -4308,10 +4308,10 @@
         <v>11</v>
       </c>
       <c r="G33" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H33" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -4334,10 +4334,10 @@
         <v>11</v>
       </c>
       <c r="G34" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H34" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -4360,10 +4360,10 @@
         <v>11</v>
       </c>
       <c r="G35" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H35" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -4386,10 +4386,10 @@
         <v>11</v>
       </c>
       <c r="G36" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H36" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -4412,10 +4412,10 @@
         <v>11</v>
       </c>
       <c r="G37" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H37" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -4438,10 +4438,10 @@
         <v>11</v>
       </c>
       <c r="G38" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H38" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -4464,10 +4464,10 @@
         <v>11</v>
       </c>
       <c r="G39" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H39" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -4490,10 +4490,10 @@
         <v>11</v>
       </c>
       <c r="G40" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H40" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -4516,10 +4516,10 @@
         <v>11</v>
       </c>
       <c r="G41" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H41" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -4542,10 +4542,10 @@
         <v>11</v>
       </c>
       <c r="G42" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H42" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -4568,10 +4568,10 @@
         <v>11</v>
       </c>
       <c r="G43" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H43" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -4594,10 +4594,10 @@
         <v>11</v>
       </c>
       <c r="G44" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H44" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -4620,10 +4620,10 @@
         <v>11</v>
       </c>
       <c r="G45" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H45" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -4646,10 +4646,10 @@
         <v>11</v>
       </c>
       <c r="G46" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H46" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -4672,10 +4672,10 @@
         <v>11</v>
       </c>
       <c r="G47" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H47" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -4698,10 +4698,10 @@
         <v>11</v>
       </c>
       <c r="G48" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H48" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -4724,10 +4724,10 @@
         <v>11</v>
       </c>
       <c r="G49" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H49" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -4750,10 +4750,10 @@
         <v>11</v>
       </c>
       <c r="G50" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H50" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -4776,10 +4776,10 @@
         <v>11</v>
       </c>
       <c r="G51" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H51" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -4802,10 +4802,10 @@
         <v>11</v>
       </c>
       <c r="G52" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H52" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -4828,10 +4828,10 @@
         <v>11</v>
       </c>
       <c r="G53" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H53" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -4854,10 +4854,10 @@
         <v>11</v>
       </c>
       <c r="G54" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H54" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -4880,10 +4880,10 @@
         <v>11</v>
       </c>
       <c r="G55" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H55" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -4906,10 +4906,10 @@
         <v>11</v>
       </c>
       <c r="G56" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H56" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -4932,10 +4932,10 @@
         <v>11</v>
       </c>
       <c r="G57" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H57" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -4958,10 +4958,10 @@
         <v>11</v>
       </c>
       <c r="G58" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H58" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -4984,10 +4984,10 @@
         <v>11</v>
       </c>
       <c r="G59" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H59" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -5010,10 +5010,10 @@
         <v>11</v>
       </c>
       <c r="G60" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H60" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -5036,10 +5036,10 @@
         <v>11</v>
       </c>
       <c r="G61" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H61" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -5062,10 +5062,10 @@
         <v>11</v>
       </c>
       <c r="G62" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H62" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -5088,10 +5088,10 @@
         <v>11</v>
       </c>
       <c r="G63" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H63" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -5114,10 +5114,10 @@
         <v>11</v>
       </c>
       <c r="G64" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H64" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -5140,10 +5140,10 @@
         <v>11</v>
       </c>
       <c r="G65" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H65" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -5166,10 +5166,10 @@
         <v>11</v>
       </c>
       <c r="G66" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H66" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -5192,10 +5192,10 @@
         <v>11</v>
       </c>
       <c r="G67" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H67" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -5218,10 +5218,10 @@
         <v>11</v>
       </c>
       <c r="G68" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H68" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -5244,10 +5244,10 @@
         <v>11</v>
       </c>
       <c r="G69" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H69" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -5270,10 +5270,10 @@
         <v>11</v>
       </c>
       <c r="G70" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H70" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -5296,10 +5296,10 @@
         <v>11</v>
       </c>
       <c r="G71" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H71" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -5322,10 +5322,10 @@
         <v>11</v>
       </c>
       <c r="G72" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H72" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -5348,10 +5348,10 @@
         <v>11</v>
       </c>
       <c r="G73" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H73" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -5374,10 +5374,10 @@
         <v>11</v>
       </c>
       <c r="G74" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H74" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -5400,10 +5400,10 @@
         <v>11</v>
       </c>
       <c r="G75" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H75" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -5426,10 +5426,10 @@
         <v>11</v>
       </c>
       <c r="G76" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H76" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -5452,10 +5452,10 @@
         <v>11</v>
       </c>
       <c r="G77" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H77" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -5478,10 +5478,10 @@
         <v>11</v>
       </c>
       <c r="G78" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H78" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -5504,10 +5504,10 @@
         <v>11</v>
       </c>
       <c r="G79" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H79" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -5530,10 +5530,10 @@
         <v>11</v>
       </c>
       <c r="G80" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H80" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -5556,10 +5556,10 @@
         <v>11</v>
       </c>
       <c r="G81" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H81" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -5582,10 +5582,10 @@
         <v>11</v>
       </c>
       <c r="G82" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H82" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -5608,10 +5608,10 @@
         <v>11</v>
       </c>
       <c r="G83" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H83" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -5634,10 +5634,10 @@
         <v>11</v>
       </c>
       <c r="G84" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H84" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -5660,10 +5660,10 @@
         <v>11</v>
       </c>
       <c r="G85" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H85" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -5686,10 +5686,10 @@
         <v>11</v>
       </c>
       <c r="G86" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H86" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -5712,10 +5712,10 @@
         <v>11</v>
       </c>
       <c r="G87" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H87" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -5738,10 +5738,10 @@
         <v>11</v>
       </c>
       <c r="G88" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H88" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -5764,10 +5764,10 @@
         <v>11</v>
       </c>
       <c r="G89" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H89" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -5790,10 +5790,10 @@
         <v>11</v>
       </c>
       <c r="G90" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H90" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -5816,10 +5816,10 @@
         <v>11</v>
       </c>
       <c r="G91" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H91" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -5842,10 +5842,10 @@
         <v>11</v>
       </c>
       <c r="G92" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H92" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -5868,10 +5868,10 @@
         <v>11</v>
       </c>
       <c r="G93" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H93" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -5894,10 +5894,10 @@
         <v>11</v>
       </c>
       <c r="G94" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H94" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -5920,10 +5920,10 @@
         <v>11</v>
       </c>
       <c r="G95" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H95" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -5946,10 +5946,10 @@
         <v>11</v>
       </c>
       <c r="G96" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H96" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -5972,10 +5972,10 @@
         <v>11</v>
       </c>
       <c r="G97" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H97" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -5998,10 +5998,10 @@
         <v>11</v>
       </c>
       <c r="G98" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H98" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -6024,10 +6024,10 @@
         <v>11</v>
       </c>
       <c r="G99" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H99" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -6050,10 +6050,10 @@
         <v>11</v>
       </c>
       <c r="G100" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H100" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -6076,10 +6076,10 @@
         <v>11</v>
       </c>
       <c r="G101" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H101" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -6102,10 +6102,10 @@
         <v>11</v>
       </c>
       <c r="G102" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H102" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -6128,10 +6128,10 @@
         <v>11</v>
       </c>
       <c r="G103" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H103" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -6154,10 +6154,10 @@
         <v>11</v>
       </c>
       <c r="G104" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H104" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -6180,10 +6180,10 @@
         <v>11</v>
       </c>
       <c r="G105" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H105" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -6206,10 +6206,10 @@
         <v>11</v>
       </c>
       <c r="G106" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H106" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -6232,10 +6232,10 @@
         <v>11</v>
       </c>
       <c r="G107" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H107" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -6258,10 +6258,10 @@
         <v>11</v>
       </c>
       <c r="G108" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H108" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -6284,10 +6284,10 @@
         <v>11</v>
       </c>
       <c r="G109" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H109" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -6310,10 +6310,10 @@
         <v>11</v>
       </c>
       <c r="G110" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H110" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -6336,10 +6336,10 @@
         <v>11</v>
       </c>
       <c r="G111" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H111" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -6362,10 +6362,10 @@
         <v>11</v>
       </c>
       <c r="G112" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H112" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -6388,10 +6388,10 @@
         <v>11</v>
       </c>
       <c r="G113" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H113" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -6414,10 +6414,10 @@
         <v>11</v>
       </c>
       <c r="G114" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H114" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -6440,10 +6440,10 @@
         <v>11</v>
       </c>
       <c r="G115" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H115" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -6466,10 +6466,10 @@
         <v>11</v>
       </c>
       <c r="G116" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H116" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -6492,10 +6492,10 @@
         <v>11</v>
       </c>
       <c r="G117" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H117" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -6518,10 +6518,10 @@
         <v>11</v>
       </c>
       <c r="G118" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H118" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -6544,10 +6544,10 @@
         <v>11</v>
       </c>
       <c r="G119" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H119" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -6570,10 +6570,10 @@
         <v>11</v>
       </c>
       <c r="G120" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H120" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -6596,10 +6596,10 @@
         <v>11</v>
       </c>
       <c r="G121" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H121" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -6622,10 +6622,10 @@
         <v>11</v>
       </c>
       <c r="G122" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H122" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -6648,10 +6648,10 @@
         <v>11</v>
       </c>
       <c r="G123" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H123" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -6674,10 +6674,10 @@
         <v>11</v>
       </c>
       <c r="G124" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H124" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -6700,10 +6700,10 @@
         <v>11</v>
       </c>
       <c r="G125" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H125" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -6726,10 +6726,10 @@
         <v>11</v>
       </c>
       <c r="G126" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H126" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -6752,10 +6752,10 @@
         <v>11</v>
       </c>
       <c r="G127" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H127" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -6778,10 +6778,10 @@
         <v>11</v>
       </c>
       <c r="G128" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H128" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -6804,10 +6804,10 @@
         <v>11</v>
       </c>
       <c r="G129" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H129" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -6830,10 +6830,10 @@
         <v>11</v>
       </c>
       <c r="G130" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H130" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -6856,10 +6856,10 @@
         <v>11</v>
       </c>
       <c r="G131" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H131" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -6882,10 +6882,10 @@
         <v>11</v>
       </c>
       <c r="G132" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H132" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -6908,10 +6908,10 @@
         <v>11</v>
       </c>
       <c r="G133" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H133" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -6934,10 +6934,10 @@
         <v>11</v>
       </c>
       <c r="G134" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H134" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -6960,10 +6960,10 @@
         <v>11</v>
       </c>
       <c r="G135" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H135" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -6986,10 +6986,10 @@
         <v>11</v>
       </c>
       <c r="G136" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H136" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -7012,10 +7012,10 @@
         <v>11</v>
       </c>
       <c r="G137" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H137" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -7038,10 +7038,10 @@
         <v>11</v>
       </c>
       <c r="G138" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H138" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -7064,10 +7064,10 @@
         <v>11</v>
       </c>
       <c r="G139" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H139" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -7090,10 +7090,10 @@
         <v>11</v>
       </c>
       <c r="G140" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H140" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -7116,10 +7116,10 @@
         <v>11</v>
       </c>
       <c r="G141" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H141" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -7142,10 +7142,10 @@
         <v>11</v>
       </c>
       <c r="G142" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H142" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -7168,10 +7168,10 @@
         <v>11</v>
       </c>
       <c r="G143" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H143" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -7194,10 +7194,10 @@
         <v>11</v>
       </c>
       <c r="G144" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H144" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -7220,10 +7220,10 @@
         <v>11</v>
       </c>
       <c r="G145" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H145" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -7246,10 +7246,10 @@
         <v>11</v>
       </c>
       <c r="G146" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H146" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -7272,10 +7272,10 @@
         <v>11</v>
       </c>
       <c r="G147" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H147" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -7298,10 +7298,10 @@
         <v>11</v>
       </c>
       <c r="G148" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H148" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -7324,10 +7324,10 @@
         <v>11</v>
       </c>
       <c r="G149" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H149" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -7350,10 +7350,10 @@
         <v>11</v>
       </c>
       <c r="G150" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H150" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -7376,10 +7376,10 @@
         <v>11</v>
       </c>
       <c r="G151" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H151" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -7402,10 +7402,10 @@
         <v>11</v>
       </c>
       <c r="G152" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H152" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -7428,10 +7428,10 @@
         <v>11</v>
       </c>
       <c r="G153" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H153" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -7454,10 +7454,10 @@
         <v>11</v>
       </c>
       <c r="G154" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H154" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -7480,10 +7480,10 @@
         <v>11</v>
       </c>
       <c r="G155" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H155" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -7506,10 +7506,10 @@
         <v>11</v>
       </c>
       <c r="G156" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H156" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -7532,10 +7532,10 @@
         <v>11</v>
       </c>
       <c r="G157" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H157" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -7558,10 +7558,10 @@
         <v>11</v>
       </c>
       <c r="G158" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H158" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -7584,10 +7584,10 @@
         <v>11</v>
       </c>
       <c r="G159" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H159" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -7610,10 +7610,10 @@
         <v>11</v>
       </c>
       <c r="G160" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H160" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -7636,10 +7636,10 @@
         <v>11</v>
       </c>
       <c r="G161" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H161" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -7662,10 +7662,10 @@
         <v>11</v>
       </c>
       <c r="G162" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H162" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -7688,10 +7688,10 @@
         <v>11</v>
       </c>
       <c r="G163" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H163" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -7714,10 +7714,10 @@
         <v>11</v>
       </c>
       <c r="G164" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H164" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -7740,10 +7740,10 @@
         <v>11</v>
       </c>
       <c r="G165" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H165" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -7766,10 +7766,10 @@
         <v>11</v>
       </c>
       <c r="G166" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H166" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -7792,10 +7792,10 @@
         <v>11</v>
       </c>
       <c r="G167" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H167" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -7818,10 +7818,10 @@
         <v>11</v>
       </c>
       <c r="G168" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H168" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -7844,10 +7844,10 @@
         <v>11</v>
       </c>
       <c r="G169" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H169" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -7870,10 +7870,10 @@
         <v>11</v>
       </c>
       <c r="G170" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H170" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -7896,10 +7896,10 @@
         <v>11</v>
       </c>
       <c r="G171" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H171" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -7922,10 +7922,10 @@
         <v>11</v>
       </c>
       <c r="G172" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H172" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -7948,10 +7948,10 @@
         <v>11</v>
       </c>
       <c r="G173" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H173" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -7974,10 +7974,10 @@
         <v>11</v>
       </c>
       <c r="G174" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H174" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -8000,10 +8000,10 @@
         <v>11</v>
       </c>
       <c r="G175" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H175" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -8026,10 +8026,10 @@
         <v>11</v>
       </c>
       <c r="G176" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H176" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -8052,10 +8052,10 @@
         <v>11</v>
       </c>
       <c r="G177" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H177" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -8078,10 +8078,10 @@
         <v>11</v>
       </c>
       <c r="G178" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H178" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -8104,10 +8104,10 @@
         <v>11</v>
       </c>
       <c r="G179" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H179" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -8130,10 +8130,10 @@
         <v>11</v>
       </c>
       <c r="G180" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H180" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -8156,10 +8156,10 @@
         <v>11</v>
       </c>
       <c r="G181" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H181" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -8182,10 +8182,10 @@
         <v>11</v>
       </c>
       <c r="G182" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H182" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -8208,10 +8208,10 @@
         <v>11</v>
       </c>
       <c r="G183" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H183" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -8234,10 +8234,10 @@
         <v>11</v>
       </c>
       <c r="G184" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H184" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -8260,10 +8260,10 @@
         <v>11</v>
       </c>
       <c r="G185" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H185" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -8286,10 +8286,10 @@
         <v>11</v>
       </c>
       <c r="G186" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H186" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -8312,10 +8312,10 @@
         <v>11</v>
       </c>
       <c r="G187" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H187" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -8338,10 +8338,10 @@
         <v>11</v>
       </c>
       <c r="G188" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H188" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -8364,10 +8364,10 @@
         <v>11</v>
       </c>
       <c r="G189" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H189" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -8390,10 +8390,10 @@
         <v>11</v>
       </c>
       <c r="G190" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H190" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -8416,10 +8416,10 @@
         <v>11</v>
       </c>
       <c r="G191" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H191" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -8442,10 +8442,10 @@
         <v>11</v>
       </c>
       <c r="G192" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H192" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -8468,10 +8468,10 @@
         <v>11</v>
       </c>
       <c r="G193" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H193" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -8494,10 +8494,10 @@
         <v>11</v>
       </c>
       <c r="G194" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H194" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -8520,10 +8520,10 @@
         <v>11</v>
       </c>
       <c r="G195" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H195" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -8546,10 +8546,10 @@
         <v>11</v>
       </c>
       <c r="G196" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H196" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -8572,10 +8572,10 @@
         <v>11</v>
       </c>
       <c r="G197" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H197" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -8598,10 +8598,10 @@
         <v>11</v>
       </c>
       <c r="G198" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H198" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -8624,10 +8624,10 @@
         <v>11</v>
       </c>
       <c r="G199" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H199" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -8650,10 +8650,10 @@
         <v>11</v>
       </c>
       <c r="G200" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H200" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -8676,10 +8676,10 @@
         <v>11</v>
       </c>
       <c r="G201" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H201" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -8702,10 +8702,10 @@
         <v>11</v>
       </c>
       <c r="G202" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H202" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -8728,10 +8728,10 @@
         <v>11</v>
       </c>
       <c r="G203" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H203" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -8754,10 +8754,10 @@
         <v>11</v>
       </c>
       <c r="G204" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H204" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -8780,10 +8780,10 @@
         <v>11</v>
       </c>
       <c r="G205" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H205" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -8806,10 +8806,10 @@
         <v>11</v>
       </c>
       <c r="G206" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H206" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -8832,10 +8832,10 @@
         <v>11</v>
       </c>
       <c r="G207" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H207" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -8858,10 +8858,10 @@
         <v>11</v>
       </c>
       <c r="G208" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H208" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -8884,10 +8884,10 @@
         <v>11</v>
       </c>
       <c r="G209" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H209" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -8910,10 +8910,10 @@
         <v>11</v>
       </c>
       <c r="G210" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H210" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -8936,10 +8936,10 @@
         <v>11</v>
       </c>
       <c r="G211" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H211" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -8962,10 +8962,10 @@
         <v>11</v>
       </c>
       <c r="G212" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H212" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -8988,10 +8988,10 @@
         <v>11</v>
       </c>
       <c r="G213" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H213" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -9014,10 +9014,10 @@
         <v>11</v>
       </c>
       <c r="G214" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H214" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -9040,10 +9040,10 @@
         <v>11</v>
       </c>
       <c r="G215" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H215" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -9066,10 +9066,10 @@
         <v>11</v>
       </c>
       <c r="G216" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H216" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -9092,10 +9092,10 @@
         <v>11</v>
       </c>
       <c r="G217" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H217" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -9118,10 +9118,10 @@
         <v>11</v>
       </c>
       <c r="G218" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H218" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -9144,10 +9144,10 @@
         <v>11</v>
       </c>
       <c r="G219" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H219" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -9170,10 +9170,10 @@
         <v>11</v>
       </c>
       <c r="G220" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H220" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -9196,10 +9196,10 @@
         <v>11</v>
       </c>
       <c r="G221" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H221" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -9222,10 +9222,10 @@
         <v>11</v>
       </c>
       <c r="G222" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H222" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -9248,10 +9248,10 @@
         <v>11</v>
       </c>
       <c r="G223" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H223" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -9274,10 +9274,10 @@
         <v>11</v>
       </c>
       <c r="G224" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H224" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -9300,10 +9300,10 @@
         <v>11</v>
       </c>
       <c r="G225" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H225" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -9326,10 +9326,10 @@
         <v>11</v>
       </c>
       <c r="G226" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H226" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -9352,10 +9352,10 @@
         <v>11</v>
       </c>
       <c r="G227" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H227" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -9378,10 +9378,10 @@
         <v>11</v>
       </c>
       <c r="G228" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H228" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -9404,10 +9404,10 @@
         <v>11</v>
       </c>
       <c r="G229" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H229" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -9430,10 +9430,10 @@
         <v>11</v>
       </c>
       <c r="G230" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H230" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -9456,10 +9456,10 @@
         <v>11</v>
       </c>
       <c r="G231" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H231" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -9482,10 +9482,10 @@
         <v>11</v>
       </c>
       <c r="G232" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H232" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -9508,10 +9508,10 @@
         <v>11</v>
       </c>
       <c r="G233" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H233" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -9534,10 +9534,10 @@
         <v>11</v>
       </c>
       <c r="G234" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H234" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -9560,10 +9560,10 @@
         <v>11</v>
       </c>
       <c r="G235" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H235" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -9586,10 +9586,10 @@
         <v>11</v>
       </c>
       <c r="G236" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H236" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -9612,10 +9612,10 @@
         <v>11</v>
       </c>
       <c r="G237" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H237" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -9638,10 +9638,10 @@
         <v>11</v>
       </c>
       <c r="G238" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H238" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -9664,10 +9664,10 @@
         <v>11</v>
       </c>
       <c r="G239" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H239" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -9690,10 +9690,10 @@
         <v>11</v>
       </c>
       <c r="G240" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H240" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -9716,10 +9716,10 @@
         <v>11</v>
       </c>
       <c r="G241" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H241" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -9742,10 +9742,10 @@
         <v>11</v>
       </c>
       <c r="G242" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H242" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -9768,10 +9768,10 @@
         <v>11</v>
       </c>
       <c r="G243" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H243" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -9794,10 +9794,10 @@
         <v>11</v>
       </c>
       <c r="G244" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H244" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -9820,10 +9820,10 @@
         <v>11</v>
       </c>
       <c r="G245" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H245" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -9846,10 +9846,10 @@
         <v>11</v>
       </c>
       <c r="G246" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H246" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -9872,10 +9872,10 @@
         <v>11</v>
       </c>
       <c r="G247" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H247" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -9898,10 +9898,10 @@
         <v>11</v>
       </c>
       <c r="G248" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H248" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -9924,10 +9924,10 @@
         <v>11</v>
       </c>
       <c r="G249" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H249" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -9950,10 +9950,10 @@
         <v>11</v>
       </c>
       <c r="G250" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H250" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -9976,10 +9976,10 @@
         <v>11</v>
       </c>
       <c r="G251" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H251" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -10002,10 +10002,10 @@
         <v>11</v>
       </c>
       <c r="G252" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H252" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -10028,10 +10028,10 @@
         <v>11</v>
       </c>
       <c r="G253" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H253" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -10054,10 +10054,10 @@
         <v>11</v>
       </c>
       <c r="G254" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H254" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -10080,10 +10080,10 @@
         <v>11</v>
       </c>
       <c r="G255" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H255" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -10106,10 +10106,10 @@
         <v>11</v>
       </c>
       <c r="G256" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H256" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -10132,10 +10132,10 @@
         <v>11</v>
       </c>
       <c r="G257" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H257" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -10158,10 +10158,10 @@
         <v>11</v>
       </c>
       <c r="G258" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H258" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -10184,10 +10184,10 @@
         <v>11</v>
       </c>
       <c r="G259" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H259" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -10210,10 +10210,10 @@
         <v>11</v>
       </c>
       <c r="G260" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H260" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -10236,10 +10236,10 @@
         <v>11</v>
       </c>
       <c r="G261" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H261" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -10262,10 +10262,10 @@
         <v>11</v>
       </c>
       <c r="G262" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H262" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -10288,10 +10288,10 @@
         <v>11</v>
       </c>
       <c r="G263" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H263" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -10314,10 +10314,10 @@
         <v>11</v>
       </c>
       <c r="G264" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H264" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -10340,10 +10340,10 @@
         <v>11</v>
       </c>
       <c r="G265" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H265" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -10366,10 +10366,10 @@
         <v>11</v>
       </c>
       <c r="G266" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H266" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -10392,10 +10392,10 @@
         <v>11</v>
       </c>
       <c r="G267" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H267" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -10418,10 +10418,10 @@
         <v>11</v>
       </c>
       <c r="G268" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H268" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -10444,10 +10444,10 @@
         <v>11</v>
       </c>
       <c r="G269" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H269" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -10470,10 +10470,10 @@
         <v>11</v>
       </c>
       <c r="G270" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H270" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -10496,10 +10496,10 @@
         <v>11</v>
       </c>
       <c r="G271" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H271" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -10522,10 +10522,10 @@
         <v>11</v>
       </c>
       <c r="G272" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H272" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -10548,10 +10548,10 @@
         <v>11</v>
       </c>
       <c r="G273" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H273" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -10574,10 +10574,10 @@
         <v>11</v>
       </c>
       <c r="G274" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H274" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -10600,10 +10600,10 @@
         <v>11</v>
       </c>
       <c r="G275" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H275" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -10626,10 +10626,10 @@
         <v>11</v>
       </c>
       <c r="G276" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H276" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -10652,10 +10652,10 @@
         <v>11</v>
       </c>
       <c r="G277" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H277" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -10678,10 +10678,10 @@
         <v>11</v>
       </c>
       <c r="G278" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H278" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -10704,10 +10704,10 @@
         <v>11</v>
       </c>
       <c r="G279" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H279" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -10730,10 +10730,10 @@
         <v>11</v>
       </c>
       <c r="G280" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H280" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -10756,10 +10756,10 @@
         <v>11</v>
       </c>
       <c r="G281" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H281" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -10782,10 +10782,10 @@
         <v>11</v>
       </c>
       <c r="G282" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H282" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -10808,10 +10808,10 @@
         <v>11</v>
       </c>
       <c r="G283" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H283" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -10834,10 +10834,10 @@
         <v>11</v>
       </c>
       <c r="G284" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H284" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -10860,10 +10860,10 @@
         <v>11</v>
       </c>
       <c r="G285" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H285" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -10886,10 +10886,10 @@
         <v>11</v>
       </c>
       <c r="G286" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H286" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -10912,10 +10912,10 @@
         <v>11</v>
       </c>
       <c r="G287" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H287" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -10938,10 +10938,10 @@
         <v>11</v>
       </c>
       <c r="G288" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H288" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -10964,10 +10964,10 @@
         <v>11</v>
       </c>
       <c r="G289" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H289" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -10990,10 +10990,10 @@
         <v>11</v>
       </c>
       <c r="G290" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H290" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -11016,10 +11016,10 @@
         <v>11</v>
       </c>
       <c r="G291" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H291" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -11042,10 +11042,10 @@
         <v>11</v>
       </c>
       <c r="G292" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H292" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -11068,10 +11068,10 @@
         <v>11</v>
       </c>
       <c r="G293" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H293" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -11094,10 +11094,10 @@
         <v>11</v>
       </c>
       <c r="G294" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H294" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -11120,10 +11120,10 @@
         <v>11</v>
       </c>
       <c r="G295" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H295" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -11146,10 +11146,10 @@
         <v>11</v>
       </c>
       <c r="G296" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H296" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -11172,10 +11172,10 @@
         <v>11</v>
       </c>
       <c r="G297" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H297" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -11198,10 +11198,10 @@
         <v>11</v>
       </c>
       <c r="G298" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H298" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -11224,10 +11224,10 @@
         <v>11</v>
       </c>
       <c r="G299" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H299" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -11250,10 +11250,10 @@
         <v>11</v>
       </c>
       <c r="G300" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H300" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -11276,10 +11276,10 @@
         <v>11</v>
       </c>
       <c r="G301" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H301" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -11302,10 +11302,10 @@
         <v>11</v>
       </c>
       <c r="G302" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H302" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -11328,10 +11328,10 @@
         <v>11</v>
       </c>
       <c r="G303" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H303" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -11354,10 +11354,10 @@
         <v>11</v>
       </c>
       <c r="G304" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H304" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -11380,10 +11380,10 @@
         <v>11</v>
       </c>
       <c r="G305" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H305" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -11406,10 +11406,10 @@
         <v>11</v>
       </c>
       <c r="G306" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H306" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -11432,10 +11432,10 @@
         <v>11</v>
       </c>
       <c r="G307" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H307" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -11458,10 +11458,10 @@
         <v>11</v>
       </c>
       <c r="G308" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H308" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -11484,10 +11484,10 @@
         <v>11</v>
       </c>
       <c r="G309" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H309" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -11510,10 +11510,10 @@
         <v>11</v>
       </c>
       <c r="G310" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H310" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -11536,10 +11536,10 @@
         <v>11</v>
       </c>
       <c r="G311" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H311" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -11562,10 +11562,10 @@
         <v>11</v>
       </c>
       <c r="G312" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H312" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -11588,10 +11588,10 @@
         <v>11</v>
       </c>
       <c r="G313" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H313" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -11614,10 +11614,10 @@
         <v>11</v>
       </c>
       <c r="G314" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H314" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -11640,10 +11640,10 @@
         <v>11</v>
       </c>
       <c r="G315" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H315" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -11666,10 +11666,10 @@
         <v>11</v>
       </c>
       <c r="G316" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H316" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -11692,10 +11692,10 @@
         <v>11</v>
       </c>
       <c r="G317" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H317" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -11718,10 +11718,10 @@
         <v>11</v>
       </c>
       <c r="G318" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H318" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -11744,10 +11744,10 @@
         <v>11</v>
       </c>
       <c r="G319" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H319" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -11770,10 +11770,10 @@
         <v>11</v>
       </c>
       <c r="G320" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H320" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -11796,10 +11796,10 @@
         <v>11</v>
       </c>
       <c r="G321" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H321" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -11822,10 +11822,10 @@
         <v>11</v>
       </c>
       <c r="G322" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H322" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -11848,10 +11848,10 @@
         <v>11</v>
       </c>
       <c r="G323" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H323" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -11874,10 +11874,10 @@
         <v>11</v>
       </c>
       <c r="G324" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H324" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -11900,10 +11900,10 @@
         <v>11</v>
       </c>
       <c r="G325" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H325" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -11926,10 +11926,10 @@
         <v>11</v>
       </c>
       <c r="G326" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H326" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -11952,10 +11952,10 @@
         <v>11</v>
       </c>
       <c r="G327" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H327" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -11978,10 +11978,10 @@
         <v>11</v>
       </c>
       <c r="G328" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H328" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -12004,10 +12004,10 @@
         <v>11</v>
       </c>
       <c r="G329" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H329" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -12030,10 +12030,10 @@
         <v>11</v>
       </c>
       <c r="G330" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H330" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -12056,10 +12056,10 @@
         <v>11</v>
       </c>
       <c r="G331" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H331" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -12082,10 +12082,10 @@
         <v>11</v>
       </c>
       <c r="G332" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H332" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -12108,10 +12108,10 @@
         <v>11</v>
       </c>
       <c r="G333" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H333" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -12134,10 +12134,10 @@
         <v>11</v>
       </c>
       <c r="G334" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H334" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -12160,10 +12160,10 @@
         <v>11</v>
       </c>
       <c r="G335" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H335" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -12186,10 +12186,10 @@
         <v>11</v>
       </c>
       <c r="G336" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H336" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -12212,10 +12212,10 @@
         <v>11</v>
       </c>
       <c r="G337" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H337" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -12238,10 +12238,10 @@
         <v>11</v>
       </c>
       <c r="G338" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H338" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -12264,10 +12264,10 @@
         <v>11</v>
       </c>
       <c r="G339" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H339" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -12290,10 +12290,10 @@
         <v>11</v>
       </c>
       <c r="G340" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H340" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -12316,10 +12316,10 @@
         <v>11</v>
       </c>
       <c r="G341" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H341" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -12342,10 +12342,10 @@
         <v>11</v>
       </c>
       <c r="G342" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H342" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -12368,10 +12368,10 @@
         <v>11</v>
       </c>
       <c r="G343" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H343" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -12394,10 +12394,10 @@
         <v>11</v>
       </c>
       <c r="G344" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H344" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -12420,10 +12420,10 @@
         <v>11</v>
       </c>
       <c r="G345" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H345" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -12446,10 +12446,10 @@
         <v>11</v>
       </c>
       <c r="G346" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H346" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -12472,10 +12472,10 @@
         <v>11</v>
       </c>
       <c r="G347" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H347" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -12498,10 +12498,10 @@
         <v>11</v>
       </c>
       <c r="G348" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H348" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -12524,10 +12524,10 @@
         <v>11</v>
       </c>
       <c r="G349" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H349" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -12550,10 +12550,10 @@
         <v>11</v>
       </c>
       <c r="G350" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H350" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -12576,10 +12576,10 @@
         <v>11</v>
       </c>
       <c r="G351" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H351" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -12602,10 +12602,10 @@
         <v>11</v>
       </c>
       <c r="G352" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H352" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -12628,10 +12628,10 @@
         <v>11</v>
       </c>
       <c r="G353" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H353" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -12654,10 +12654,10 @@
         <v>11</v>
       </c>
       <c r="G354" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H354" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -12680,10 +12680,10 @@
         <v>11</v>
       </c>
       <c r="G355" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H355" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -12706,10 +12706,10 @@
         <v>11</v>
       </c>
       <c r="G356" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H356" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -12732,10 +12732,10 @@
         <v>11</v>
       </c>
       <c r="G357" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H357" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -12758,10 +12758,10 @@
         <v>11</v>
       </c>
       <c r="G358" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H358" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -12784,10 +12784,10 @@
         <v>11</v>
       </c>
       <c r="G359" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H359" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -12810,10 +12810,10 @@
         <v>11</v>
       </c>
       <c r="G360" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H360" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -12836,10 +12836,10 @@
         <v>11</v>
       </c>
       <c r="G361" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H361" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -12862,10 +12862,10 @@
         <v>11</v>
       </c>
       <c r="G362" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H362" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -12888,10 +12888,10 @@
         <v>11</v>
       </c>
       <c r="G363" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H363" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -12914,10 +12914,10 @@
         <v>11</v>
       </c>
       <c r="G364" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H364" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -12940,10 +12940,10 @@
         <v>11</v>
       </c>
       <c r="G365" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H365" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -12966,10 +12966,10 @@
         <v>11</v>
       </c>
       <c r="G366" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H366" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -12992,10 +12992,10 @@
         <v>11</v>
       </c>
       <c r="G367" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H367" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -13018,10 +13018,10 @@
         <v>11</v>
       </c>
       <c r="G368" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H368" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -13044,10 +13044,10 @@
         <v>11</v>
       </c>
       <c r="G369" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H369" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -13070,10 +13070,10 @@
         <v>11</v>
       </c>
       <c r="G370" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H370" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -13096,10 +13096,10 @@
         <v>11</v>
       </c>
       <c r="G371" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H371" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -13122,10 +13122,10 @@
         <v>11</v>
       </c>
       <c r="G372" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H372" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -13148,10 +13148,10 @@
         <v>11</v>
       </c>
       <c r="G373" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H373" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -13174,10 +13174,10 @@
         <v>11</v>
       </c>
       <c r="G374" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H374" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -13200,10 +13200,10 @@
         <v>11</v>
       </c>
       <c r="G375" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H375" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -13226,10 +13226,10 @@
         <v>11</v>
       </c>
       <c r="G376" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H376" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -13252,10 +13252,10 @@
         <v>11</v>
       </c>
       <c r="G377" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H377" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -13278,10 +13278,10 @@
         <v>11</v>
       </c>
       <c r="G378" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H378" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -13304,10 +13304,10 @@
         <v>11</v>
       </c>
       <c r="G379" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H379" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -13330,10 +13330,10 @@
         <v>11</v>
       </c>
       <c r="G380" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H380" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -13356,10 +13356,10 @@
         <v>11</v>
       </c>
       <c r="G381" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H381" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -13382,10 +13382,10 @@
         <v>11</v>
       </c>
       <c r="G382" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H382" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -13408,10 +13408,10 @@
         <v>11</v>
       </c>
       <c r="G383" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H383" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -13434,10 +13434,10 @@
         <v>11</v>
       </c>
       <c r="G384" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H384" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -13460,10 +13460,10 @@
         <v>11</v>
       </c>
       <c r="G385" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H385" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -13486,10 +13486,10 @@
         <v>11</v>
       </c>
       <c r="G386" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H386" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -13512,10 +13512,10 @@
         <v>11</v>
       </c>
       <c r="G387" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H387" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -13538,10 +13538,10 @@
         <v>11</v>
       </c>
       <c r="G388" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H388" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -13564,10 +13564,10 @@
         <v>11</v>
       </c>
       <c r="G389" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H389" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -13590,10 +13590,10 @@
         <v>11</v>
       </c>
       <c r="G390" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H390" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -13616,10 +13616,10 @@
         <v>11</v>
       </c>
       <c r="G391" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H391" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -13642,10 +13642,10 @@
         <v>11</v>
       </c>
       <c r="G392" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H392" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -13668,10 +13668,10 @@
         <v>11</v>
       </c>
       <c r="G393" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H393" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -13694,10 +13694,10 @@
         <v>11</v>
       </c>
       <c r="G394" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H394" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -13720,10 +13720,10 @@
         <v>11</v>
       </c>
       <c r="G395" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H395" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -13746,10 +13746,10 @@
         <v>11</v>
       </c>
       <c r="G396" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H396" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -13772,10 +13772,10 @@
         <v>11</v>
       </c>
       <c r="G397" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H397" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -13798,10 +13798,10 @@
         <v>11</v>
       </c>
       <c r="G398" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H398" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -13824,10 +13824,10 @@
         <v>11</v>
       </c>
       <c r="G399" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H399" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -13850,10 +13850,10 @@
         <v>11</v>
       </c>
       <c r="G400" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H400" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -13876,10 +13876,10 @@
         <v>11</v>
       </c>
       <c r="G401" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H401" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -13902,10 +13902,10 @@
         <v>11</v>
       </c>
       <c r="G402" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H402" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -13928,10 +13928,10 @@
         <v>11</v>
       </c>
       <c r="G403" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H403" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -13954,10 +13954,10 @@
         <v>11</v>
       </c>
       <c r="G404" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H404" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -13980,10 +13980,10 @@
         <v>11</v>
       </c>
       <c r="G405" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H405" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -14006,10 +14006,10 @@
         <v>11</v>
       </c>
       <c r="G406" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H406" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -14032,10 +14032,10 @@
         <v>11</v>
       </c>
       <c r="G407" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H407" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -14058,10 +14058,10 @@
         <v>11</v>
       </c>
       <c r="G408" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H408" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -14084,10 +14084,10 @@
         <v>11</v>
       </c>
       <c r="G409" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H409" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -14110,10 +14110,10 @@
         <v>11</v>
       </c>
       <c r="G410" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H410" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -14136,10 +14136,10 @@
         <v>11</v>
       </c>
       <c r="G411" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H411" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -14162,10 +14162,10 @@
         <v>11</v>
       </c>
       <c r="G412" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H412" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -14188,10 +14188,10 @@
         <v>11</v>
       </c>
       <c r="G413" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H413" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -14214,10 +14214,10 @@
         <v>11</v>
       </c>
       <c r="G414" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H414" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -14240,10 +14240,10 @@
         <v>11</v>
       </c>
       <c r="G415" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H415" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -14266,10 +14266,10 @@
         <v>11</v>
       </c>
       <c r="G416" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H416" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -14292,10 +14292,10 @@
         <v>11</v>
       </c>
       <c r="G417" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H417" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -14318,10 +14318,10 @@
         <v>11</v>
       </c>
       <c r="G418" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H418" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -14344,10 +14344,10 @@
         <v>11</v>
       </c>
       <c r="G419" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H419" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -14370,10 +14370,10 @@
         <v>11</v>
       </c>
       <c r="G420" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H420" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -14396,10 +14396,10 @@
         <v>11</v>
       </c>
       <c r="G421" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H421" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -14422,10 +14422,10 @@
         <v>11</v>
       </c>
       <c r="G422" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H422" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -14448,10 +14448,10 @@
         <v>11</v>
       </c>
       <c r="G423" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H423" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -14474,10 +14474,10 @@
         <v>11</v>
       </c>
       <c r="G424" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H424" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -14500,10 +14500,10 @@
         <v>11</v>
       </c>
       <c r="G425" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H425" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -14526,10 +14526,10 @@
         <v>11</v>
       </c>
       <c r="G426" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H426" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -14552,10 +14552,10 @@
         <v>11</v>
       </c>
       <c r="G427" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H427" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -14578,10 +14578,10 @@
         <v>11</v>
       </c>
       <c r="G428" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H428" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -14604,10 +14604,10 @@
         <v>11</v>
       </c>
       <c r="G429" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H429" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -14630,10 +14630,10 @@
         <v>11</v>
       </c>
       <c r="G430" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H430" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -14656,10 +14656,10 @@
         <v>11</v>
       </c>
       <c r="G431" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H431" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -14682,10 +14682,10 @@
         <v>11</v>
       </c>
       <c r="G432" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H432" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -14708,10 +14708,10 @@
         <v>11</v>
       </c>
       <c r="G433" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H433" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -14734,10 +14734,10 @@
         <v>11</v>
       </c>
       <c r="G434" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H434" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -14760,10 +14760,10 @@
         <v>11</v>
       </c>
       <c r="G435" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H435" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -14786,10 +14786,10 @@
         <v>11</v>
       </c>
       <c r="G436" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H436" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -14812,10 +14812,10 @@
         <v>11</v>
       </c>
       <c r="G437" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H437" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -14838,10 +14838,10 @@
         <v>11</v>
       </c>
       <c r="G438" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H438" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -14864,10 +14864,10 @@
         <v>11</v>
       </c>
       <c r="G439" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H439" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -14890,10 +14890,10 @@
         <v>11</v>
       </c>
       <c r="G440" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H440" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -14916,10 +14916,10 @@
         <v>11</v>
       </c>
       <c r="G441" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H441" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -14942,10 +14942,10 @@
         <v>11</v>
       </c>
       <c r="G442" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H442" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -14968,10 +14968,10 @@
         <v>11</v>
       </c>
       <c r="G443" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H443" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -14994,10 +14994,10 @@
         <v>11</v>
       </c>
       <c r="G444" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H444" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -15020,10 +15020,10 @@
         <v>11</v>
       </c>
       <c r="G445" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H445" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -15046,10 +15046,10 @@
         <v>11</v>
       </c>
       <c r="G446" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H446" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -15072,10 +15072,10 @@
         <v>11</v>
       </c>
       <c r="G447" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H447" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -15098,10 +15098,10 @@
         <v>11</v>
       </c>
       <c r="G448" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H448" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -15124,10 +15124,10 @@
         <v>11</v>
       </c>
       <c r="G449" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H449" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -15150,10 +15150,10 @@
         <v>11</v>
       </c>
       <c r="G450" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H450" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -15176,10 +15176,10 @@
         <v>11</v>
       </c>
       <c r="G451" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H451" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -15202,10 +15202,10 @@
         <v>11</v>
       </c>
       <c r="G452" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H452" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -15228,10 +15228,10 @@
         <v>11</v>
       </c>
       <c r="G453" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H453" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -15254,10 +15254,10 @@
         <v>11</v>
       </c>
       <c r="G454" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H454" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -15280,10 +15280,10 @@
         <v>11</v>
       </c>
       <c r="G455" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H455" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -15306,10 +15306,10 @@
         <v>11</v>
       </c>
       <c r="G456" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H456" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -15332,10 +15332,10 @@
         <v>11</v>
       </c>
       <c r="G457" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H457" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -15358,10 +15358,10 @@
         <v>11</v>
       </c>
       <c r="G458" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H458" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -15384,10 +15384,10 @@
         <v>11</v>
       </c>
       <c r="G459" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H459" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -15410,10 +15410,10 @@
         <v>11</v>
       </c>
       <c r="G460" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H460" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -15436,10 +15436,10 @@
         <v>11</v>
       </c>
       <c r="G461" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H461" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -15462,10 +15462,10 @@
         <v>11</v>
       </c>
       <c r="G462" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H462" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -15488,10 +15488,10 @@
         <v>11</v>
       </c>
       <c r="G463" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H463" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -15514,10 +15514,10 @@
         <v>11</v>
       </c>
       <c r="G464" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H464" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -15540,10 +15540,10 @@
         <v>11</v>
       </c>
       <c r="G465" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H465" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -15566,10 +15566,10 @@
         <v>11</v>
       </c>
       <c r="G466" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H466" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -15592,10 +15592,10 @@
         <v>11</v>
       </c>
       <c r="G467" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H467" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -15618,10 +15618,10 @@
         <v>11</v>
       </c>
       <c r="G468" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H468" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -15644,10 +15644,10 @@
         <v>11</v>
       </c>
       <c r="G469" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H469" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -15670,10 +15670,10 @@
         <v>11</v>
       </c>
       <c r="G470" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H470" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -15696,10 +15696,10 @@
         <v>11</v>
       </c>
       <c r="G471" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H471" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -15722,10 +15722,10 @@
         <v>11</v>
       </c>
       <c r="G472" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H472" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -15748,10 +15748,10 @@
         <v>11</v>
       </c>
       <c r="G473" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H473" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -15774,10 +15774,10 @@
         <v>11</v>
       </c>
       <c r="G474" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H474" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -15800,10 +15800,10 @@
         <v>11</v>
       </c>
       <c r="G475" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H475" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -15826,10 +15826,10 @@
         <v>11</v>
       </c>
       <c r="G476" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H476" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -15852,10 +15852,10 @@
         <v>11</v>
       </c>
       <c r="G477" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H477" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -15878,10 +15878,10 @@
         <v>11</v>
       </c>
       <c r="G478" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H478" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -15904,10 +15904,10 @@
         <v>11</v>
       </c>
       <c r="G479" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H479" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -15930,10 +15930,10 @@
         <v>11</v>
       </c>
       <c r="G480" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H480" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -15956,10 +15956,10 @@
         <v>11</v>
       </c>
       <c r="G481" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H481" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -15982,10 +15982,10 @@
         <v>11</v>
       </c>
       <c r="G482" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H482" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -16008,10 +16008,10 @@
         <v>11</v>
       </c>
       <c r="G483" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H483" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -16034,10 +16034,10 @@
         <v>11</v>
       </c>
       <c r="G484" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H484" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -16060,10 +16060,10 @@
         <v>11</v>
       </c>
       <c r="G485" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H485" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -16086,10 +16086,10 @@
         <v>11</v>
       </c>
       <c r="G486" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H486" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -16112,10 +16112,10 @@
         <v>11</v>
       </c>
       <c r="G487" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H487" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -16138,10 +16138,10 @@
         <v>11</v>
       </c>
       <c r="G488" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H488" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -16164,10 +16164,10 @@
         <v>11</v>
       </c>
       <c r="G489" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H489" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -16190,10 +16190,10 @@
         <v>11</v>
       </c>
       <c r="G490" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H490" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -16216,10 +16216,10 @@
         <v>11</v>
       </c>
       <c r="G491" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H491" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="492" spans="1:8">
@@ -16242,10 +16242,10 @@
         <v>11</v>
       </c>
       <c r="G492" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H492" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="493" spans="1:8">
@@ -16268,10 +16268,10 @@
         <v>11</v>
       </c>
       <c r="G493" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H493" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -16294,10 +16294,10 @@
         <v>11</v>
       </c>
       <c r="G494" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H494" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="495" spans="1:8">
@@ -16320,10 +16320,10 @@
         <v>11</v>
       </c>
       <c r="G495" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H495" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -16346,10 +16346,10 @@
         <v>11</v>
       </c>
       <c r="G496" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H496" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -16372,10 +16372,10 @@
         <v>11</v>
       </c>
       <c r="G497" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H497" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="498" spans="1:8">
@@ -16398,10 +16398,10 @@
         <v>11</v>
       </c>
       <c r="G498" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H498" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="499" spans="1:8">
@@ -16424,10 +16424,10 @@
         <v>11</v>
       </c>
       <c r="G499" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H499" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="500" spans="1:8">
@@ -16450,10 +16450,10 @@
         <v>11</v>
       </c>
       <c r="G500" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H500" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="501" spans="1:8">
@@ -16476,10 +16476,10 @@
         <v>11</v>
       </c>
       <c r="G501" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H501" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="502" spans="1:8">
@@ -16502,10 +16502,10 @@
         <v>11</v>
       </c>
       <c r="G502" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H502" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="503" spans="1:8">
@@ -16528,10 +16528,10 @@
         <v>11</v>
       </c>
       <c r="G503" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H503" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="504" spans="1:8">
@@ -16554,10 +16554,10 @@
         <v>11</v>
       </c>
       <c r="G504" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H504" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
     <row r="505" spans="1:8">
@@ -16580,10 +16580,10 @@
         <v>11</v>
       </c>
       <c r="G505" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
       <c r="H505" s="2" t="n">
-        <v>42405.28485150504</v>
+        <v>42405.57765284422</v>
       </c>
     </row>
   </sheetData>
